--- a/data/censo.xlsx
+++ b/data/censo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asisao365-my.sharepoint.com/personal/francisco_garate_asisa_es/Documents/Maletin/clase/utils_ucm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{2270A25E-AE89-4D7A-84F1-D94997C3B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{034A217C-85AD-4D6B-998E-5D8F1D2550B0}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{2270A25E-AE89-4D7A-84F1-D94997C3B4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6154CA5D-ED67-4DD1-B198-39C78DAA37E2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E83730B5-C752-436C-95C9-CB7ACDE0AE5B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>Paco</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Puig</t>
+  </si>
+  <si>
+    <t>Carme</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -135,6 +156,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,20 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF54DD4C-F29F-48FC-A77C-D2E6176F2E02}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,72 +481,121 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
         <v>20275</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
         <v>20877</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
         <v>21139</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
         <v>19778</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
         <v>23899</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
         <v>25543</v>
       </c>
     </row>
